--- a/data/costos_hfv_competencia.xlsx
+++ b/data/costos_hfv_competencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rmfs6\amciszko$\Desktop\Informes y automatizaciones\Informes\Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffer\Documents\GitHub\Development\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EE9C5C-22A2-4D95-AC73-F573CD9FEA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BB9EA-1B8E-4DD9-A5ED-326F3C020824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF3D6754-9598-46D2-BB0E-37A2DD6BCF47}"/>
+    <workbookView xWindow="-28410" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{FF3D6754-9598-46D2-BB0E-37A2DD6BCF47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="10">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -56,9 +56,6 @@
   <si>
     <t>Valor HFV</t>
   </si>
-  <si>
-    <t>Aplicacion de actualizacion de Precios</t>
-  </si>
 </sst>
 </file>
 
@@ -86,7 +83,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,26 +112,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -144,10 +131,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -156,7 +142,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -210,7 +196,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}" name="Tabla1" displayName="Tabla1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}" name="Tabla1" displayName="Tabla1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E28" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF74C3B4-C36D-4106-9970-58C886D0AA23}" name="Laboratorio" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{6DEF6104-1E16-44ED-A485-1379F441C351}" name="Producto" dataDxfId="3"/>
@@ -519,22 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45341C2F-495F-48D9-9D04-14DC8A03BA14}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,74 +538,470 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
-        <v>45474</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E2" s="6">
         <v>1500</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8">
-        <v>45474</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E3" s="6">
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
-        <v>45474</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E4" s="6">
         <v>1700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2300</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E27" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5">
+        <v>45474</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4100</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F2B06BCC-55F9-4086-BBAA-F22DD39FAC4A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/costos_hfv_competencia.xlsx
+++ b/data/costos_hfv_competencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffer\Documents\GitHub\Development\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4BB9EA-1B8E-4DD9-A5ED-326F3C020824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF86D11-DF90-4A00-846C-A46820CF4D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="405" windowWidth="21600" windowHeight="11385" xr2:uid="{FF3D6754-9598-46D2-BB0E-37A2DD6BCF47}"/>
+    <workbookView xWindow="4920" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{FF3D6754-9598-46D2-BB0E-37A2DD6BCF47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
   <si>
     <t>Laboratorio</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Cliente</t>
-  </si>
-  <si>
-    <t>Fecha</t>
   </si>
   <si>
     <t>ELEA</t>
@@ -54,7 +51,22 @@
     <t>Droguería C</t>
   </si>
   <si>
-    <t>Valor HFV</t>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Costo Total</t>
+  </si>
+  <si>
+    <t>Costo HFV</t>
+  </si>
+  <si>
+    <t>CMG %</t>
+  </si>
+  <si>
+    <t>Cmg $</t>
+  </si>
+  <si>
+    <t>Responsable Precing (Email)</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -125,24 +137,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -196,14 +226,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}" name="Tabla1" displayName="Tabla1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E28" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EF74C3B4-C36D-4106-9970-58C886D0AA23}" name="Laboratorio" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6DEF6104-1E16-44ED-A485-1379F441C351}" name="Producto" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{769FECA9-C3FB-4B88-9DA4-2197BBA51CF0}" name="Cliente" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9493C589-9F47-42DE-AA90-BB5E7C5943D2}" name="Fecha" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{FB8F8110-4C6F-40CD-89C1-EBCE3121B156}" name="Valor HFV" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}" name="Tabla1" displayName="Tabla1" ref="A1:I28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I28" xr:uid="{BAF9B11B-4587-475F-A648-8F273EF56A1A}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EF74C3B4-C36D-4106-9970-58C886D0AA23}" name="Laboratorio" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6DEF6104-1E16-44ED-A485-1379F441C351}" name="Producto" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{769FECA9-C3FB-4B88-9DA4-2197BBA51CF0}" name="Cliente" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9493C589-9F47-42DE-AA90-BB5E7C5943D2}" name="Precio" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{FB8F8110-4C6F-40CD-89C1-EBCE3121B156}" name="Costo Total" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{3B52E2CB-C385-4AA2-A3A9-BFE699953426}" name="Costo HFV" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5DA45C2D-6F30-4DED-8321-75D77C29E05A}" name="Cmg $" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8EC45F80-8135-4C37-BA55-CE892FE839CC}" name="CMG %" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{860AD401-8AC2-445B-98F5-7EBF34107A13}" name="Responsable Precing (Email)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45341C2F-495F-48D9-9D04-14DC8A03BA14}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +555,7 @@
     <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,471 +566,753 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="5">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D5" s="5">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D8" s="5">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D11" s="5">
+        <v>2400</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="D12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2600</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D14" s="5">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="D16" s="5">
+        <v>2900</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="D17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D20" s="5">
+        <v>3300</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="D21" s="5">
+        <v>3400</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D23" s="5">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="D25" s="5">
+        <v>3800</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2300</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D26" s="5">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D27" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E13" s="6">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E25" s="6">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E27" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D28" s="5">
-        <v>45474</v>
-      </c>
-      <c r="E28" s="6">
         <v>4100</v>
       </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
